--- a/biology/Médecine/Durvalumab/Durvalumab.xlsx
+++ b/biology/Médecine/Durvalumab/Durvalumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le durvalumab est un anticorps monoclonal ciblant le PD-L1 et utilisé dans le traitement de certains cancers. Le titulaire de l'autorisation de mise sur le marché (AMM) est la société AstraZeneca sous le nom commercial d'Imfinzi.
 </t>
@@ -511,10 +523,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cancer bronchique non à petites cellules évolué (stade III), en association avec une chimiothérapie et une radiothérapie, le durvalumab permet d'augmenter la durée de la rémission[1] et de diminuer la mortalité[2].
-Depuis le 27 août 2020, le durvalumab bénéficie d'une extension d'indication de l'AMMc : en association à l’étoposide et aux sels de platine (carboplatine ou cisplatine), il est indiqué dans le traitement de première intention des patients atteints d'un cancer bronchique à petites cellules à un stade étendu (CBPC-SE)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cancer bronchique non à petites cellules évolué (stade III), en association avec une chimiothérapie et une radiothérapie, le durvalumab permet d'augmenter la durée de la rémission et de diminuer la mortalité.
+Depuis le 27 août 2020, le durvalumab bénéficie d'une extension d'indication de l'AMMc : en association à l’étoposide et aux sels de platine (carboplatine ou cisplatine), il est indiqué dans le traitement de première intention des patients atteints d'un cancer bronchique à petites cellules à un stade étendu (CBPC-SE).
 </t>
         </is>
       </c>
